--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxCruiser.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxCruiser.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -255,6 +255,15 @@
   </si>
   <si>
     <t>1:無連動交易</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>參數</t>
+  </si>
+  <si>
+    <t>3000</t>
   </si>
 </sst>
 </file>
@@ -840,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="16.5"/>
@@ -1043,36 +1052,34 @@
       <c r="F12" s="18"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:7" s="21" customFormat="1" ht="47.25">
+    <row r="13" spans="1:7" s="21" customFormat="1">
       <c r="A13" s="15">
         <v>5</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="F13" s="18"/>
-      <c r="G13" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="21" customFormat="1">
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:7" s="21" customFormat="1" ht="47.25">
       <c r="A14" s="15">
         <v>6</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>19</v>
@@ -1082,77 +1089,98 @@
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="17" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="21" customFormat="1">
       <c r="A15" s="15">
         <v>7</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>20</v>
+      <c r="B15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>51</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" spans="1:7">
+        <v>19</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="21" customFormat="1">
       <c r="A16" s="15">
         <v>8</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="18">
-        <v>6</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="15">
         <v>9</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="18"/>
+        <v>23</v>
+      </c>
+      <c r="E17" s="18">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="15">
         <v>10</v>
       </c>
       <c r="B18" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="18"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="15">
+        <v>11</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C19" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D19" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E19" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="15"/>
+    <row r="20" spans="1:5">
+      <c r="A20" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
